--- a/wild_reports/tr0714t005_wild_report.xlsx
+++ b/wild_reports/tr0714t005_wild_report.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>MARTEN</t>
+          <t>Marten</t>
         </is>
       </c>
       <c r="G2" s="2" t="inlineStr">
@@ -579,7 +579,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -597,7 +597,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
           <t>714</t>
@@ -610,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
@@ -628,7 +632,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -646,7 +650,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
           <t>714</t>
@@ -659,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
@@ -697,7 +705,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>MARTEN</t>
+          <t>Marten</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -730,7 +738,7 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -748,7 +756,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
           <t>714</t>
@@ -761,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
@@ -779,7 +791,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -797,7 +809,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
           <t>714</t>
@@ -810,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
@@ -848,7 +864,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>MARTEN</t>
+          <t>Marten</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -881,7 +897,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -899,7 +915,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
           <t>714</t>
@@ -912,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
@@ -930,7 +950,7 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -948,7 +968,11 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr"/>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>Na</t>
+        </is>
+      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
           <t>714</t>
@@ -961,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>

--- a/wild_reports/tr0714t005_wild_report.xlsx
+++ b/wild_reports/tr0714t005_wild_report.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -597,11 +597,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
           <t>714</t>
@@ -614,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
@@ -632,7 +628,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -650,11 +646,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F4" s="2" t="inlineStr"/>
       <c r="G4" s="2" t="inlineStr">
         <is>
           <t>714</t>
@@ -667,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
@@ -738,7 +730,7 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -756,11 +748,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F6" s="2" t="inlineStr"/>
       <c r="G6" s="2" t="inlineStr">
         <is>
           <t>714</t>
@@ -773,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
@@ -791,7 +779,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -809,11 +797,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F7" s="2" t="inlineStr"/>
       <c r="G7" s="2" t="inlineStr">
         <is>
           <t>714</t>
@@ -826,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
@@ -897,7 +881,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
@@ -915,11 +899,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F9" s="2" t="inlineStr"/>
       <c r="G9" s="2" t="inlineStr">
         <is>
           <t>714</t>
@@ -932,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
@@ -950,7 +930,7 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -968,11 +948,7 @@
           <t>January</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>Na</t>
-        </is>
-      </c>
+      <c r="F10" s="2" t="inlineStr"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
           <t>714</t>
@@ -985,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
